--- a/Документы/WebTours_Профиль_нагрузки.xlsx
+++ b/Документы/WebTours_Профиль_нагрузки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Loadrunner_nt\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC941B48-3C6E-4C48-B6B6-4A7805C1160C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFD5C48-7A23-45BB-93B0-9B9638A39F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -283,26 +283,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="93">
   <si>
     <t>Вход в систему</t>
   </si>
   <si>
-    <t>Заполнение полей для поиска билета</t>
-  </si>
-  <si>
-    <t>Выбор рейса из найденных</t>
-  </si>
-  <si>
     <t>Оплата билета</t>
   </si>
   <si>
     <t>Просмотр квитанций</t>
   </si>
   <si>
-    <t>Отмена бронирования билета</t>
-  </si>
-  <si>
     <t>Выход из системы</t>
   </si>
   <si>
@@ -342,60 +333,15 @@
     <t>% отклонения</t>
   </si>
   <si>
-    <t>payment_details</t>
-  </si>
-  <si>
-    <t>Просмотр квитанции</t>
-  </si>
-  <si>
-    <t>Cancel_reservation</t>
-  </si>
-  <si>
-    <t>Check_ticket</t>
-  </si>
-  <si>
-    <t>fing_flight</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
-    <t>logout</t>
-  </si>
-  <si>
     <t>select_ticket</t>
   </si>
   <si>
-    <t>Transaction Name</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>Поиск максимума 3 ступень</t>
-  </si>
-  <si>
     <t>Подтверждение максимума</t>
   </si>
   <si>
-    <t>Профиль для 5 пользаков</t>
-  </si>
-  <si>
-    <t>1 315,</t>
-  </si>
-  <si>
-    <t>1 970,</t>
-  </si>
-  <si>
-    <t>1 675,</t>
-  </si>
-  <si>
     <t>Script name</t>
   </si>
   <si>
@@ -601,13 +547,28 @@
   </si>
   <si>
     <t>UC06_Registration</t>
+  </si>
+  <si>
+    <t>2 ступень</t>
+  </si>
+  <si>
+    <t>3 ступень</t>
+  </si>
+  <si>
+    <t>4 ступень</t>
+  </si>
+  <si>
+    <t>5 ступень</t>
+  </si>
+  <si>
+    <t>Профиль для 20 минутного теста</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,14 +667,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -1555,67 +1508,67 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1631,46 +1584,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1723,9 +1654,9 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1743,16 +1674,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="31" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1767,6 +1701,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
@@ -2285,7 +2222,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2664,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,80 +2631,80 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>79</v>
+        <v>4</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="38">
+      <c r="C2" s="30">
         <v>1</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="32">
         <f>VLOOKUP(A2,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -2775,7 +2712,7 @@
         <f>VLOOKUP(A2,$M$1:$X$8,5,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="10">
         <f>60/E2*C2</f>
         <v>1.3953488372093024</v>
       </c>
@@ -2783,66 +2720,66 @@
         <f t="shared" ref="G2:G21" si="0">VLOOKUP(A2,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="9">
         <f>D2*F2*G2</f>
         <v>55.813953488372093</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="9">
         <v>148.79552253810911</v>
       </c>
-      <c r="M2" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="19">
+      <c r="M2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="11">
         <v>1.1399999999999999</v>
       </c>
-      <c r="O2" s="35">
+      <c r="O2" s="27">
         <v>27</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="28">
         <f t="shared" ref="P2:P7" si="1">N2+O2</f>
         <v>28.14</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="17">
         <v>43</v>
       </c>
-      <c r="R2" s="48">
+      <c r="R2" s="40">
         <v>2</v>
       </c>
-      <c r="S2" s="49">
+      <c r="S2" s="41">
         <f t="shared" ref="S2:S7" si="2">R2/W$2</f>
         <v>0.2</v>
       </c>
-      <c r="T2" s="65">
+      <c r="T2" s="57">
         <f t="shared" ref="T2:T7" si="3">60/(Q2)</f>
         <v>1.3953488372093024</v>
       </c>
-      <c r="U2" s="52">
+      <c r="U2" s="44">
         <v>20</v>
       </c>
-      <c r="V2" s="53">
+      <c r="V2" s="45">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>56</v>
       </c>
-      <c r="W2" s="30">
+      <c r="W2" s="22">
         <f>SUM(R2:R7)</f>
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="30">
         <v>1</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="33">
         <f>VLOOKUP(A3,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -2850,7 +2787,7 @@
         <f>VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="10">
         <f>60/E3*C3</f>
         <v>1.3953488372093024</v>
       </c>
@@ -2858,63 +2795,63 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="9">
         <f>D3*F3*G3</f>
         <v>55.813953488372093</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="17">
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9">
         <v>94.523630907726925</v>
       </c>
-      <c r="M3" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="19">
+      <c r="M3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="11">
         <v>0.99</v>
       </c>
-      <c r="O3" s="35">
+      <c r="O3" s="27">
         <v>16</v>
       </c>
-      <c r="P3" s="36">
+      <c r="P3" s="28">
         <f t="shared" si="1"/>
         <v>16.989999999999998</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="17">
         <v>52</v>
       </c>
-      <c r="R3" s="48">
+      <c r="R3" s="40">
         <v>1</v>
       </c>
-      <c r="S3" s="49">
+      <c r="S3" s="41">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="T3" s="65">
+      <c r="T3" s="57">
         <f t="shared" si="3"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="U3" s="52">
+      <c r="U3" s="44">
         <v>20</v>
       </c>
-      <c r="V3" s="53">
+      <c r="V3" s="45">
         <f>ROUND(R3*T3*U3,0)</f>
         <v>23</v>
       </c>
-      <c r="W3" s="30"/>
+      <c r="W3" s="22"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="38">
+      <c r="A4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="30">
         <v>1</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="33">
         <f>VLOOKUP(A5,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -2922,7 +2859,7 @@
         <f>VLOOKUP(A5,$M$1:$X$8,5,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="10">
         <f t="shared" ref="F4" si="4">60/E4*C4</f>
         <v>1.3953488372093024</v>
       </c>
@@ -2930,63 +2867,63 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="9">
         <f t="shared" ref="H4" si="5">D4*F4*G4</f>
         <v>55.813953488372093</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="17">
+      <c r="I4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
         <v>114.18840922131839</v>
       </c>
-      <c r="M4" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="19">
+      <c r="M4" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="11">
         <v>0.9</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="27">
         <v>29</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="28">
         <f t="shared" si="1"/>
         <v>29.9</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="17">
         <v>78</v>
       </c>
-      <c r="R4" s="48">
+      <c r="R4" s="40">
         <v>2</v>
       </c>
-      <c r="S4" s="49">
+      <c r="S4" s="41">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="T4" s="65">
+      <c r="T4" s="57">
         <f t="shared" si="3"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="U4" s="52">
+      <c r="U4" s="44">
         <v>20</v>
       </c>
-      <c r="V4" s="53">
+      <c r="V4" s="45">
         <f>ROUND(R4*T4*U4,0)</f>
         <v>31</v>
       </c>
-      <c r="W4" s="30"/>
+      <c r="W4" s="22"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="38">
+      <c r="C5" s="30">
         <v>1</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="33">
         <f>VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -2994,7 +2931,7 @@
         <f>VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="10">
         <f t="shared" ref="F5" si="6">60/E5*C5</f>
         <v>1.3953488372093024</v>
       </c>
@@ -3002,63 +2939,63 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="9">
         <f t="shared" ref="H5" si="7">D5*F5*G5</f>
         <v>55.813953488372093</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="17">
+      <c r="I5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9">
         <v>99.051932794519388</v>
       </c>
-      <c r="M5" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="19">
+      <c r="M5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="O5" s="35">
+      <c r="O5" s="27">
         <v>19</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="28">
         <f t="shared" si="1"/>
         <v>20.12</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="17">
         <v>62</v>
       </c>
-      <c r="R5" s="48">
+      <c r="R5" s="40">
         <v>2</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5" s="41">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="T5" s="65">
+      <c r="T5" s="57">
         <f t="shared" si="3"/>
         <v>0.967741935483871</v>
       </c>
-      <c r="U5" s="52">
+      <c r="U5" s="44">
         <v>20</v>
       </c>
-      <c r="V5" s="53">
+      <c r="V5" s="45">
         <f>ROUND(R5*T5*U5,0)</f>
         <v>39</v>
       </c>
-      <c r="W5" s="30"/>
+      <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="38">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="30">
         <v>1</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="33">
         <f t="shared" ref="D6:D21" si="8">VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3066,7 +3003,7 @@
         <f t="shared" ref="E6:E21" si="9">VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="10">
         <f t="shared" ref="F6" si="10">60/E6*C6</f>
         <v>1.3953488372093024</v>
       </c>
@@ -3074,63 +3011,63 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="9">
         <f t="shared" ref="H6" si="11">D6*F6*G6</f>
         <v>55.813953488372093</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="17">
+      <c r="I6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
         <v>55.813953488372093</v>
       </c>
-      <c r="M6" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="19">
+      <c r="M6" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="11">
         <v>0.64</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6" s="27">
         <v>11</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="28">
         <f t="shared" si="1"/>
         <v>11.64</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="17">
         <v>90</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="40">
         <v>2</v>
       </c>
-      <c r="S6" s="49">
+      <c r="S6" s="41">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="T6" s="65">
+      <c r="T6" s="57">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="U6" s="52">
+      <c r="U6" s="44">
         <v>20</v>
       </c>
-      <c r="V6" s="53">
+      <c r="V6" s="45">
         <f>ROUND(R6*T6*U6,0)</f>
         <v>27</v>
       </c>
-      <c r="W6" s="30"/>
+      <c r="W6" s="22"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="63">
+      <c r="A7" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="41">
+      <c r="C7" s="55">
+        <v>1</v>
+      </c>
+      <c r="D7" s="33">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -3138,7 +3075,7 @@
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="10">
         <f t="shared" ref="F7" si="12">60/E7*C7</f>
         <v>1.3953488372093024</v>
       </c>
@@ -3146,63 +3083,63 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="9">
         <f t="shared" ref="H7" si="13">D7*F7*G7</f>
         <v>55.813953488372093</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="I7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="9">
         <v>23.076923076923073</v>
       </c>
-      <c r="M7" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="19">
+      <c r="M7" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="11">
         <v>0.54100000000000004</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="29">
         <v>22</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="28">
         <f t="shared" si="1"/>
         <v>22.541</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="17">
         <v>265</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="40">
         <v>1</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="41">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="T7" s="65">
+      <c r="T7" s="57">
         <f t="shared" si="3"/>
         <v>0.22641509433962265</v>
       </c>
-      <c r="U7" s="52">
+      <c r="U7" s="44">
         <v>20</v>
       </c>
-      <c r="V7" s="53">
+      <c r="V7" s="45">
         <f>SUM(V2:V6)</f>
         <v>176</v>
       </c>
-      <c r="W7" s="30"/>
+      <c r="W7" s="22"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="38">
+      <c r="A8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="30">
         <v>1</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="33">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -3210,7 +3147,7 @@
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="10">
         <f t="shared" ref="F8:F9" si="14">60/E8*C8</f>
         <v>1.3953488372093024</v>
       </c>
@@ -3218,50 +3155,50 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="9">
         <f t="shared" ref="H8:H9" si="15">D8*F8*G8</f>
         <v>55.813953488372093</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="17">
+      <c r="I8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9">
         <v>92.981569049737033</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="54">
+      <c r="M8" s="38"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="46">
         <f>SUM(S2:S7)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="T8" s="61"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="31"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="23"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="23">
+      <c r="A9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="15">
         <v>1</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="24">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="9">
         <f t="shared" si="9"/>
         <v>52</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="10">
         <f t="shared" si="14"/>
         <v>1.1538461538461537</v>
       </c>
@@ -3269,36 +3206,36 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="9">
         <f t="shared" si="15"/>
         <v>23.076923076923073</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="17">
+      <c r="I9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="9">
         <v>179.56475330733988</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="15">
         <v>1</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="9">
         <f t="shared" si="9"/>
         <v>52</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="10">
         <f t="shared" ref="F10:F21" si="16">60/E10*C10</f>
         <v>1.1538461538461537</v>
       </c>
@@ -3306,36 +3243,36 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="9">
         <f t="shared" ref="H10:H17" si="17">D10*F10*G10</f>
         <v>23.076923076923073</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="I10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="9">
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="23">
+      <c r="A11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="9">
         <f t="shared" si="9"/>
         <v>52</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="10">
         <f t="shared" si="16"/>
         <v>1.1538461538461537</v>
       </c>
@@ -3343,36 +3280,36 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="9">
         <f t="shared" si="17"/>
         <v>23.076923076923073</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="I11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="9">
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="23">
+      <c r="A12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15">
         <v>1</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="9">
         <f t="shared" si="9"/>
         <v>52</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="10">
         <f t="shared" si="16"/>
         <v>1.1538461538461537</v>
       </c>
@@ -3380,36 +3317,36 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="9">
         <f t="shared" si="17"/>
         <v>23.076923076923073</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="I12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="9">
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="23">
+      <c r="B13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15">
         <v>1</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="23">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="9">
         <f t="shared" si="9"/>
         <v>52</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="10">
         <f t="shared" si="16"/>
         <v>1.1538461538461537</v>
       </c>
@@ -3417,36 +3354,36 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="9">
         <f t="shared" si="17"/>
         <v>23.076923076923073</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="17">
+      <c r="I13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="9">
         <v>99.051932794519388</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="A14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="15">
         <v>1</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="24">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="9">
         <f t="shared" si="9"/>
         <v>78</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="10">
         <f t="shared" si="16"/>
         <v>0.76923076923076927</v>
       </c>
@@ -3454,36 +3391,36 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="9">
         <f t="shared" si="17"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="I14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="9">
         <v>999.35631948625746</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="A15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="15">
         <v>1</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="22">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="9">
         <f t="shared" si="9"/>
         <v>78</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="10">
         <f t="shared" si="16"/>
         <v>0.76923076923076927</v>
       </c>
@@ -3491,30 +3428,30 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="9">
         <f t="shared" si="17"/>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="23">
+      <c r="A16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="15">
         <v>1</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="22">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="9">
         <f t="shared" si="9"/>
         <v>78</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="10">
         <f t="shared" si="16"/>
         <v>0.76923076923076927</v>
       </c>
@@ -3522,30 +3459,30 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="9">
         <f t="shared" si="17"/>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="23">
+      <c r="A17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="15">
         <v>1</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="22">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="9">
         <f t="shared" si="9"/>
         <v>78</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="10">
         <f t="shared" si="16"/>
         <v>0.76923076923076927</v>
       </c>
@@ -3553,30 +3490,30 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="9">
         <f t="shared" si="17"/>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="23">
+      <c r="A18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15">
         <v>1</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="22">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="9">
         <f t="shared" si="9"/>
         <v>78</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="10">
         <f t="shared" si="16"/>
         <v>0.76923076923076927</v>
       </c>
@@ -3584,22 +3521,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="9">
         <f t="shared" ref="H18" si="18">D18*F18*G18</f>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="38">
+      <c r="A19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="30">
         <v>1</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="32">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3607,7 +3544,7 @@
         <f t="shared" si="9"/>
         <v>265</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="10">
         <f t="shared" si="16"/>
         <v>0.22641509433962265</v>
       </c>
@@ -3615,22 +3552,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="9">
         <f t="shared" ref="H19:H20" si="19">D19*F19*G19</f>
         <v>4.5283018867924527</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="30">
         <v>1</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="33">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3638,7 +3575,7 @@
         <f t="shared" si="9"/>
         <v>265</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="10">
         <f t="shared" si="16"/>
         <v>0.22641509433962265</v>
       </c>
@@ -3646,22 +3583,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="9">
         <f t="shared" si="19"/>
         <v>4.5283018867924527</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="63">
+      <c r="A21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="55">
         <v>1</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="33">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3669,7 +3606,7 @@
         <f t="shared" si="9"/>
         <v>265</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="10">
         <f t="shared" si="16"/>
         <v>0.22641509433962265</v>
       </c>
@@ -3677,22 +3614,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="9">
         <f t="shared" ref="H21" si="20">D21*F21*G21</f>
         <v>4.5283018867924527</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="38">
+      <c r="A22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="30">
         <v>1</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="33">
         <f t="shared" ref="D22:D23" si="21">VLOOKUP(A22,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -3700,7 +3637,7 @@
         <f t="shared" ref="E22:E23" si="22">VLOOKUP(A22,$M$1:$X$8,5,FALSE)</f>
         <v>265</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="10">
         <f t="shared" ref="F22:F23" si="23">60/E22*C22</f>
         <v>0.22641509433962265</v>
       </c>
@@ -3708,22 +3645,22 @@
         <f t="shared" ref="G22:G23" si="24">VLOOKUP(A22,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="9">
         <f t="shared" ref="H22:H23" si="25">D22*F22*G22</f>
         <v>4.5283018867924527</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="38">
+      <c r="A23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="30">
         <v>1</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="33">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
@@ -3731,7 +3668,7 @@
         <f t="shared" si="22"/>
         <v>265</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="10">
         <f t="shared" si="23"/>
         <v>0.22641509433962265</v>
       </c>
@@ -3739,22 +3676,22 @@
         <f t="shared" si="24"/>
         <v>20</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="9">
         <f t="shared" si="25"/>
         <v>4.5283018867924527</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="38">
+      <c r="A24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="30">
         <v>1</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="31">
         <f t="shared" ref="D24:D35" si="26">VLOOKUP(A24,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -3762,7 +3699,7 @@
         <f t="shared" ref="E24:E35" si="27">VLOOKUP(A24,$M$1:$X$8,5,FALSE)</f>
         <v>265</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="10">
         <f t="shared" ref="F24:F35" si="28">60/E24*C24</f>
         <v>0.22641509433962265</v>
       </c>
@@ -3770,22 +3707,22 @@
         <f t="shared" ref="G24:G35" si="29">VLOOKUP(A24,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="9">
         <f t="shared" ref="H24:H35" si="30">D24*F24*G24</f>
         <v>4.5283018867924527</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="23">
+      <c r="A25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="15">
         <v>1</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="22">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
@@ -3793,7 +3730,7 @@
         <f t="shared" si="27"/>
         <v>62</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="10">
         <f t="shared" si="28"/>
         <v>0.967741935483871</v>
       </c>
@@ -3801,22 +3738,22 @@
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="9">
         <f t="shared" si="30"/>
         <v>38.70967741935484</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="15">
         <v>1</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="22">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
@@ -3824,7 +3761,7 @@
         <f t="shared" si="27"/>
         <v>62</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="10">
         <f t="shared" si="28"/>
         <v>0.967741935483871</v>
       </c>
@@ -3832,22 +3769,22 @@
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="9">
         <f t="shared" si="30"/>
         <v>38.70967741935484</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>64</v>
+      <c r="A27" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="63">
+        <v>49</v>
+      </c>
+      <c r="C27" s="55">
         <v>1</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="22">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
@@ -3855,7 +3792,7 @@
         <f t="shared" si="27"/>
         <v>62</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="10">
         <f t="shared" si="28"/>
         <v>0.967741935483871</v>
       </c>
@@ -3863,22 +3800,22 @@
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="9">
         <f t="shared" si="30"/>
         <v>38.70967741935484</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="23">
+      <c r="A28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="15">
         <v>1</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="22">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
@@ -3886,7 +3823,7 @@
         <f t="shared" si="27"/>
         <v>62</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="10">
         <f t="shared" si="28"/>
         <v>0.967741935483871</v>
       </c>
@@ -3894,22 +3831,22 @@
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="9">
         <f t="shared" si="30"/>
         <v>38.70967741935484</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="23">
+      <c r="A29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="15">
         <v>1</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="22">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
@@ -3917,7 +3854,7 @@
         <f t="shared" si="27"/>
         <v>62</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="10">
         <f t="shared" si="28"/>
         <v>0.967741935483871</v>
       </c>
@@ -3925,22 +3862,22 @@
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="9">
         <f t="shared" si="30"/>
         <v>38.70967741935484</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="63">
+      <c r="A30" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="55">
         <v>1</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="22">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
@@ -3948,7 +3885,7 @@
         <f t="shared" si="27"/>
         <v>62</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="10">
         <f t="shared" si="28"/>
         <v>0.967741935483871</v>
       </c>
@@ -3956,22 +3893,22 @@
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="9">
         <f t="shared" si="30"/>
         <v>38.70967741935484</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="23">
+      <c r="A31" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="15">
         <v>0</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="22">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
@@ -3979,7 +3916,7 @@
         <f t="shared" si="27"/>
         <v>62</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="10">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -3987,22 +3924,22 @@
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="9">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="23">
+      <c r="A32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="15">
         <v>1</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="24">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
@@ -4010,7 +3947,7 @@
         <f t="shared" si="27"/>
         <v>90</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="10">
         <f t="shared" si="28"/>
         <v>0.66666666666666663</v>
       </c>
@@ -4018,22 +3955,22 @@
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="9">
         <f t="shared" si="30"/>
         <v>26.666666666666664</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="23" t="s">
+      <c r="A33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="15">
         <v>1</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="22">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
@@ -4041,7 +3978,7 @@
         <f t="shared" si="27"/>
         <v>90</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="10">
         <f t="shared" si="28"/>
         <v>0.66666666666666663</v>
       </c>
@@ -4049,22 +3986,22 @@
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="9">
         <f t="shared" si="30"/>
         <v>26.666666666666664</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="23">
+      <c r="A34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="15">
         <v>1</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="22">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
@@ -4072,7 +4009,7 @@
         <f t="shared" si="27"/>
         <v>90</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="10">
         <f t="shared" si="28"/>
         <v>0.66666666666666663</v>
       </c>
@@ -4080,22 +4017,22 @@
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="9">
         <f t="shared" si="30"/>
         <v>26.666666666666664</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="23">
+      <c r="A35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="15">
         <v>0</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="23">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
@@ -4103,7 +4040,7 @@
         <f t="shared" si="27"/>
         <v>90</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="10">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -4111,477 +4048,477 @@
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="9">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="72"/>
+      <c r="A37" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="63"/>
+      <c r="C37" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="65"/>
     </row>
     <row r="38" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="55" t="s">
+      <c r="A38" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="58"/>
+      <c r="F38" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>58</v>
+      <c r="G38" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="56">
+      <c r="A39" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="48">
         <v>520</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="28">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A39)*3</f>
         <v>538.69425992201968</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="12">
         <f>1-B39/C39</f>
         <v>3.4702912789020268E-2</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="60" t="str">
+      <c r="E39" s="60"/>
+      <c r="F39" s="52" t="str">
         <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
         <v>open_home_page</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="25">
         <f>C39/3</f>
         <v>179.56475330733988</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="15">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
         <v>180</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="13">
         <f>1-G39/H39</f>
         <v>2.4180371814450652E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="56">
+      <c r="B40" s="48">
         <v>422</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="28">
         <f t="shared" ref="C40:C50" si="31">GETPIVOTDATA("Итого",$I$1,"transaction rq",A40)*3</f>
         <v>446.3865676143273</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="12">
         <f>1-B40/C40</f>
         <v>5.4631051612191506E-2</v>
       </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="60" t="str">
+      <c r="E40" s="60"/>
+      <c r="F40" s="52" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>login</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="25">
         <f t="shared" ref="G40:G50" si="32">C40/3</f>
         <v>148.79552253810911</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="15">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
         <v>149</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="13">
         <f t="shared" ref="I40:I50" si="33">1-G40/H40</f>
         <v>1.3723319589992178E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="56">
+      <c r="A41" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="48">
         <v>305</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="28">
         <f t="shared" si="31"/>
         <v>297.15579838355814</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="12">
         <f>1-B41/C41</f>
         <v>-2.6397605764760579E-2</v>
       </c>
-      <c r="E41" s="68"/>
-      <c r="F41" s="60" t="str">
+      <c r="E41" s="60"/>
+      <c r="F41" s="52" t="str">
         <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
         <v>flights_page</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="25">
         <f t="shared" si="32"/>
         <v>99.051932794519374</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="15">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="13">
         <f t="shared" si="33"/>
         <v>-5.2457368201386245E-4</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="56">
+      <c r="A42" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="48">
         <v>282</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="28">
         <f t="shared" si="31"/>
         <v>297.15579838355814</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="12">
         <f t="shared" ref="D42:D51" si="34">1-B42/C42</f>
         <v>5.1002869424057407E-2</v>
       </c>
-      <c r="E42" s="68"/>
-      <c r="F42" s="60" t="str">
+      <c r="E42" s="60"/>
+      <c r="F42" s="52" t="str">
         <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>find_flight</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="25">
         <f t="shared" si="32"/>
         <v>99.051932794519374</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="15">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="13">
         <f t="shared" si="33"/>
         <v>-5.2457368201386245E-4</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="56">
+      <c r="A43" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="48">
         <v>270</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="28">
         <f t="shared" si="31"/>
         <v>283.5708927231808</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="12">
         <f t="shared" si="34"/>
         <v>4.7857142857142931E-2</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="60" t="str">
+      <c r="E43" s="60"/>
+      <c r="F43" s="52" t="str">
         <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>select_ticket</v>
       </c>
-      <c r="G43" s="33">
+      <c r="G43" s="25">
         <f t="shared" si="32"/>
         <v>94.52363090772694</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="15">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="13">
         <f t="shared" si="33"/>
         <v>5.0144114976111709E-3</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="56">
+      <c r="A44" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="48">
         <v>175</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="28">
         <f t="shared" si="31"/>
         <v>167.44186046511629</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="12">
         <f t="shared" si="34"/>
         <v>-4.513888888888884E-2</v>
       </c>
-      <c r="E44" s="68"/>
-      <c r="F44" s="60" t="str">
+      <c r="E44" s="60"/>
+      <c r="F44" s="52" t="str">
         <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
         <v>buy_ticket</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G44" s="25">
         <f t="shared" si="32"/>
         <v>55.8139534883721</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="15">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
         <v>54</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="13">
         <f t="shared" si="33"/>
         <v>-3.3591731266150004E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="56">
+      <c r="A45" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="48">
         <v>280</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="28">
         <f t="shared" si="31"/>
         <v>278.94470714921113</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="12">
         <f t="shared" si="34"/>
         <v>-3.7831614070540365E-3</v>
       </c>
-      <c r="E45" s="68"/>
-      <c r="F45" s="60" t="str">
+      <c r="E45" s="60"/>
+      <c r="F45" s="52" t="str">
         <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>itinerary_page</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G45" s="25">
         <f t="shared" si="32"/>
         <v>92.981569049737047</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="15">
         <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
         <v>93</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="13">
         <f t="shared" si="33"/>
         <v>1.9818226089196589E-4</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="56">
+      <c r="A46" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="48">
         <v>73</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="28">
         <f t="shared" si="31"/>
         <v>69.230769230769226</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="12">
         <f t="shared" si="34"/>
         <v>-5.4444444444444517E-2</v>
       </c>
-      <c r="E46" s="68"/>
-      <c r="F46" s="60" t="str">
+      <c r="E46" s="60"/>
+      <c r="F46" s="52" t="str">
         <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
         <v>delete_ticket</v>
       </c>
-      <c r="G46" s="33">
+      <c r="G46" s="25">
         <f t="shared" si="32"/>
         <v>23.076923076923077</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="15">
         <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
         <v>23</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="13">
         <f t="shared" si="33"/>
         <v>-3.3444816053511683E-3</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="56">
+      <c r="A47" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="48">
         <v>326</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="28">
         <f t="shared" si="31"/>
         <v>342.56522766395517</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="12">
         <f t="shared" si="34"/>
         <v>4.8356418942219981E-2</v>
       </c>
-      <c r="E47" s="68"/>
-      <c r="F47" s="60" t="str">
+      <c r="E47" s="60"/>
+      <c r="F47" s="52" t="str">
         <f>VLOOKUP(A47,Соответствие!A:B,2,FALSE)</f>
         <v>sign_off</v>
       </c>
-      <c r="G47" s="33">
+      <c r="G47" s="25">
         <f t="shared" si="32"/>
         <v>114.18840922131839</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="15">
         <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
         <v>111</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="13">
         <f t="shared" si="33"/>
         <v>-2.872440739926474E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="56">
+      <c r="A48" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="48">
         <v>97</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="28">
         <f t="shared" si="31"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="12">
         <f t="shared" si="34"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E48" s="68"/>
-      <c r="F48" s="60" t="str">
+      <c r="E48" s="60"/>
+      <c r="F48" s="52" t="str">
         <f>VLOOKUP(A48,Соответствие!A:B,2,FALSE)</f>
         <v>sign_up</v>
       </c>
-      <c r="G48" s="33">
+      <c r="G48" s="25">
         <f t="shared" si="32"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="15">
         <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="13">
         <f t="shared" si="33"/>
         <v>7.4441687344912744E-3</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="56">
+      <c r="A49" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="48">
         <v>97</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="28">
         <f t="shared" si="31"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="12">
         <f t="shared" si="34"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E49" s="68"/>
-      <c r="F49" s="60" t="str">
+      <c r="E49" s="60"/>
+      <c r="F49" s="52" t="str">
         <f>VLOOKUP(A49,Соответствие!A:B,2,FALSE)</f>
         <v>registration</v>
       </c>
-      <c r="G49" s="33">
+      <c r="G49" s="25">
         <f t="shared" si="32"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="15">
         <f>VLOOKUP(F49,SummaryReport!A:J,8,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="13">
         <f t="shared" si="33"/>
         <v>7.4441687344912744E-3</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="56">
+      <c r="A50" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="48">
         <v>97</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="28">
         <f t="shared" si="31"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="12">
         <f t="shared" si="34"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E50" s="68"/>
-      <c r="F50" s="60" t="str">
+      <c r="E50" s="60"/>
+      <c r="F50" s="52" t="str">
         <f>VLOOKUP(A50,Соответствие!A:B,2,FALSE)</f>
         <v>next_page_reg</v>
       </c>
-      <c r="G50" s="33">
+      <c r="G50" s="25">
         <f t="shared" si="32"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="15">
         <f>VLOOKUP(F50,SummaryReport!A:J,8,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="13">
         <f t="shared" si="33"/>
         <v>-2.5641025641025772E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="57">
+      <c r="A51" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="49">
         <f>SUM(B39:B50)</f>
         <v>2944</v>
       </c>
-      <c r="C51" s="58">
+      <c r="C51" s="50">
         <f>SUM(C39:C50)</f>
         <v>2998.0689584587735</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="12">
         <f t="shared" si="34"/>
         <v>1.8034594670086834E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I52" s="24"/>
+      <c r="I52" s="16"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="32"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4609,119 +4546,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>71</v>
+      <c r="A1" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="str">
+      <c r="A2" s="52" t="str">
         <f>'Автоматизированный расчет'!A39</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>72</v>
+      <c r="B2" s="52" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="str">
+      <c r="A3" s="52" t="str">
         <f>'Автоматизированный расчет'!A40</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>24</v>
+      <c r="B3" s="52" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="str">
+      <c r="A4" s="52" t="str">
         <f>'Автоматизированный расчет'!A41</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>81</v>
+      <c r="B4" s="52" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="str">
+      <c r="A5" s="52" t="str">
         <f>'Автоматизированный расчет'!A42</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>82</v>
+      <c r="B5" s="52" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="str">
+      <c r="A6" s="52" t="str">
         <f>'Автоматизированный расчет'!A43</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>26</v>
+      <c r="B6" s="52" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="str">
+      <c r="A7" s="52" t="str">
         <f>'Автоматизированный расчет'!A44</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>83</v>
+      <c r="B7" s="52" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="str">
+      <c r="A8" s="52" t="str">
         <f>'Автоматизированный расчет'!A45</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>84</v>
+      <c r="B8" s="52" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="str">
+      <c r="A9" s="52" t="str">
         <f>'Автоматизированный расчет'!A46</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>85</v>
+      <c r="B9" s="52" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="str">
+      <c r="A10" s="52" t="str">
         <f>'Автоматизированный расчет'!A47</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>86</v>
+      <c r="B10" s="52" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="str">
+      <c r="A11" s="52" t="str">
         <f>'Автоматизированный расчет'!A48</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>87</v>
+      <c r="B11" s="52" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="str">
+      <c r="A12" s="52" t="str">
         <f>'Автоматизированный расчет'!A49</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="60" t="s">
-        <v>88</v>
+      <c r="B12" s="52" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="str">
+      <c r="A13" s="52" t="str">
         <f>'Автоматизированный расчет'!A50</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="60" t="s">
-        <v>89</v>
+      <c r="B13" s="52" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4734,7 +4671,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4743,619 +4680,619 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="67" t="s">
+      <c r="A1" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="59">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="D2" s="59">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="E2" s="59">
+        <v>0.999</v>
+      </c>
+      <c r="F2" s="59">
+        <v>0.122</v>
+      </c>
+      <c r="G2" s="59">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="H2" s="59">
+        <v>177</v>
+      </c>
+      <c r="I2" s="59">
+        <v>0</v>
+      </c>
+      <c r="J2" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="59">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="59">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E3" s="59">
+        <v>0.09</v>
+      </c>
+      <c r="F3" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="59">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H3" s="59">
+        <v>54</v>
+      </c>
+      <c r="I3" s="59">
+        <v>0</v>
+      </c>
+      <c r="J3" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="59">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D4" s="59">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E4" s="59">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F4" s="59">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G4" s="59">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H4" s="59">
+        <v>23</v>
+      </c>
+      <c r="I4" s="59">
+        <v>0</v>
+      </c>
+      <c r="J4" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="59">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="59">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E5" s="59">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F5" s="59">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G5" s="59">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H5" s="59">
+        <v>99</v>
+      </c>
+      <c r="I5" s="59">
+        <v>0</v>
+      </c>
+      <c r="J5" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="59">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D6" s="59">
+        <v>0.127</v>
+      </c>
+      <c r="E6" s="59">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F6" s="59">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G6" s="59">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H6" s="59">
+        <v>99</v>
+      </c>
+      <c r="I6" s="59">
+        <v>0</v>
+      </c>
+      <c r="J6" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="59">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D7" s="59">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E7" s="59">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="F7" s="59">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G7" s="59">
+        <v>0.156</v>
+      </c>
+      <c r="H7" s="59">
         <v>93</v>
       </c>
-      <c r="F1" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="67" t="s">
+      <c r="I7" s="59">
+        <v>0</v>
+      </c>
+      <c r="J7" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="59">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D8" s="59">
+        <v>0.108</v>
+      </c>
+      <c r="E8" s="59">
+        <v>0.436</v>
+      </c>
+      <c r="F8" s="59">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G8" s="59">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H8" s="59">
+        <v>149</v>
+      </c>
+      <c r="I8" s="59">
+        <v>0</v>
+      </c>
+      <c r="J8" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="59">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D9" s="59">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E9" s="59">
+        <v>0.126</v>
+      </c>
+      <c r="F9" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="59">
+        <v>0.11</v>
+      </c>
+      <c r="H9" s="59">
+        <v>30</v>
+      </c>
+      <c r="I9" s="59">
+        <v>0</v>
+      </c>
+      <c r="J9" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="59">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D10" s="59">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E10" s="59">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F10" s="59">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G10" s="59">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H10" s="59">
+        <v>180</v>
+      </c>
+      <c r="I10" s="59">
+        <v>0</v>
+      </c>
+      <c r="J10" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="59">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D11" s="59">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E11" s="59">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F11" s="59">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G11" s="59">
+        <v>0.104</v>
+      </c>
+      <c r="H11" s="59">
+        <v>31</v>
+      </c>
+      <c r="I11" s="59">
+        <v>0</v>
+      </c>
+      <c r="J11" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="59">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D12" s="59">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E12" s="59">
+        <v>0.129</v>
+      </c>
+      <c r="F12" s="59">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G12" s="59">
+        <v>0.113</v>
+      </c>
+      <c r="H12" s="59">
         <v>95</v>
       </c>
-      <c r="H1" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="67">
+      <c r="I12" s="59">
+        <v>0</v>
+      </c>
+      <c r="J12" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="59">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D13" s="59">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E13" s="59">
+        <v>0.218</v>
+      </c>
+      <c r="F13" s="59">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G13" s="59">
+        <v>0.107</v>
+      </c>
+      <c r="H13" s="59">
+        <v>111</v>
+      </c>
+      <c r="I13" s="59">
+        <v>0</v>
+      </c>
+      <c r="J13" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="59">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D14" s="59">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E14" s="59">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F14" s="59">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G14" s="59">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H14" s="59">
+        <v>31</v>
+      </c>
+      <c r="I14" s="59">
+        <v>0</v>
+      </c>
+      <c r="J14" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="59">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D15" s="59">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="E15" s="59">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F15" s="59">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G15" s="59">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="H15" s="59">
+        <v>4</v>
+      </c>
+      <c r="I15" s="59">
+        <v>0</v>
+      </c>
+      <c r="J15" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="59">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="D16" s="59">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="E16" s="59">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F16" s="59">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G16" s="59">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="H16" s="59">
+        <v>39</v>
+      </c>
+      <c r="I16" s="59">
+        <v>0</v>
+      </c>
+      <c r="J16" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="59">
+        <v>0.498</v>
+      </c>
+      <c r="D17" s="59">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0.999</v>
+      </c>
+      <c r="F17" s="59">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G17" s="59">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="H17" s="59">
+        <v>54</v>
+      </c>
+      <c r="I17" s="59">
+        <v>0</v>
+      </c>
+      <c r="J17" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="59">
         <v>0.27100000000000002</v>
       </c>
-      <c r="D2" s="67">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="E2" s="67">
-        <v>0.999</v>
-      </c>
-      <c r="F2" s="67">
-        <v>0.122</v>
-      </c>
-      <c r="G2" s="67">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="H2" s="67">
-        <v>177</v>
-      </c>
-      <c r="I2" s="67">
+      <c r="D18" s="59">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="E18" s="59">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F18" s="59">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G18" s="59">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H18" s="59">
+        <v>27</v>
+      </c>
+      <c r="I18" s="59">
         <v>0</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J18" s="59">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="67">
-        <v>0.04</v>
-      </c>
-      <c r="D3" s="67">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E3" s="67">
-        <v>0.09</v>
-      </c>
-      <c r="F3" s="67">
-        <v>0.01</v>
-      </c>
-      <c r="G3" s="67">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="H3" s="67">
-        <v>54</v>
-      </c>
-      <c r="I3" s="67">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="59">
+        <v>0.375</v>
+      </c>
+      <c r="D19" s="59">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="E19" s="59">
+        <v>0.66</v>
+      </c>
+      <c r="F19" s="59">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G19" s="59">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="H19" s="59">
+        <v>23</v>
+      </c>
+      <c r="I19" s="59">
         <v>0</v>
       </c>
-      <c r="J3" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="67">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D4" s="67">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="E4" s="67">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F4" s="67">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G4" s="67">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H4" s="67">
-        <v>23</v>
-      </c>
-      <c r="I4" s="67">
-        <v>0</v>
-      </c>
-      <c r="J4" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="67">
-        <v>0.04</v>
-      </c>
-      <c r="D5" s="67">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E5" s="67">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F5" s="67">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G5" s="67">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="H5" s="67">
-        <v>99</v>
-      </c>
-      <c r="I5" s="67">
-        <v>0</v>
-      </c>
-      <c r="J5" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="67">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="D6" s="67">
-        <v>0.127</v>
-      </c>
-      <c r="E6" s="67">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="F6" s="67">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G6" s="67">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="H6" s="67">
-        <v>99</v>
-      </c>
-      <c r="I6" s="67">
-        <v>0</v>
-      </c>
-      <c r="J6" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="67">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D7" s="67">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="E7" s="67">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="F7" s="67">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G7" s="67">
-        <v>0.156</v>
-      </c>
-      <c r="H7" s="67">
-        <v>93</v>
-      </c>
-      <c r="I7" s="67">
-        <v>0</v>
-      </c>
-      <c r="J7" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="67">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="D8" s="67">
-        <v>0.108</v>
-      </c>
-      <c r="E8" s="67">
-        <v>0.436</v>
-      </c>
-      <c r="F8" s="67">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G8" s="67">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="H8" s="67">
-        <v>149</v>
-      </c>
-      <c r="I8" s="67">
-        <v>0</v>
-      </c>
-      <c r="J8" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="67">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="D9" s="67">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="E9" s="67">
-        <v>0.126</v>
-      </c>
-      <c r="F9" s="67">
-        <v>0.01</v>
-      </c>
-      <c r="G9" s="67">
-        <v>0.11</v>
-      </c>
-      <c r="H9" s="67">
-        <v>30</v>
-      </c>
-      <c r="I9" s="67">
-        <v>0</v>
-      </c>
-      <c r="J9" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="67">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="D10" s="67">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E10" s="67">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="F10" s="67">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G10" s="67">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="H10" s="67">
-        <v>180</v>
-      </c>
-      <c r="I10" s="67">
-        <v>0</v>
-      </c>
-      <c r="J10" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="67">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="D11" s="67">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="E11" s="67">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="F11" s="67">
-        <v>2.4E-2</v>
-      </c>
-      <c r="G11" s="67">
-        <v>0.104</v>
-      </c>
-      <c r="H11" s="67">
-        <v>31</v>
-      </c>
-      <c r="I11" s="67">
-        <v>0</v>
-      </c>
-      <c r="J11" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="67">
-        <v>3.9E-2</v>
-      </c>
-      <c r="D12" s="67">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E12" s="67">
-        <v>0.129</v>
-      </c>
-      <c r="F12" s="67">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G12" s="67">
-        <v>0.113</v>
-      </c>
-      <c r="H12" s="67">
-        <v>95</v>
-      </c>
-      <c r="I12" s="67">
-        <v>0</v>
-      </c>
-      <c r="J12" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="67">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D13" s="67">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E13" s="67">
-        <v>0.218</v>
-      </c>
-      <c r="F13" s="67">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G13" s="67">
-        <v>0.107</v>
-      </c>
-      <c r="H13" s="67">
-        <v>111</v>
-      </c>
-      <c r="I13" s="67">
-        <v>0</v>
-      </c>
-      <c r="J13" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="67">
-        <v>3.9E-2</v>
-      </c>
-      <c r="D14" s="67">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="E14" s="67">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="F14" s="67">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G14" s="67">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H14" s="67">
-        <v>31</v>
-      </c>
-      <c r="I14" s="67">
-        <v>0</v>
-      </c>
-      <c r="J14" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="67">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="D15" s="67">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="E15" s="67">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="F15" s="67">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G15" s="67">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="H15" s="67">
-        <v>4</v>
-      </c>
-      <c r="I15" s="67">
-        <v>0</v>
-      </c>
-      <c r="J15" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="67">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="D16" s="67">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="E16" s="67">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F16" s="67">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G16" s="67">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="H16" s="67">
-        <v>39</v>
-      </c>
-      <c r="I16" s="67">
-        <v>0</v>
-      </c>
-      <c r="J16" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="67">
-        <v>0.498</v>
-      </c>
-      <c r="D17" s="67">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="E17" s="67">
-        <v>0.999</v>
-      </c>
-      <c r="F17" s="67">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="G17" s="67">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="H17" s="67">
-        <v>54</v>
-      </c>
-      <c r="I17" s="67">
-        <v>0</v>
-      </c>
-      <c r="J17" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="67">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="D18" s="67">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="E18" s="67">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="F18" s="67">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="G18" s="67">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="H18" s="67">
-        <v>27</v>
-      </c>
-      <c r="I18" s="67">
-        <v>0</v>
-      </c>
-      <c r="J18" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="67">
-        <v>0.375</v>
-      </c>
-      <c r="D19" s="67">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="E19" s="67">
-        <v>0.66</v>
-      </c>
-      <c r="F19" s="67">
-        <v>6.3E-2</v>
-      </c>
-      <c r="G19" s="67">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="H19" s="67">
-        <v>23</v>
-      </c>
-      <c r="I19" s="67">
-        <v>0</v>
-      </c>
-      <c r="J19" s="67">
+      <c r="J19" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C20">
         <v>0.35499999999999998</v>
@@ -5378,7 +5315,7 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="59">
         <v>0</v>
       </c>
     </row>
@@ -5390,617 +5327,1554 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C9:O44"/>
+  <dimension ref="C1:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="4" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="11" max="11" width="1.42578125" customWidth="1"/>
-    <col min="12" max="12" width="40.28515625" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-    </row>
-    <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="E11" s="1" t="s">
+    <row r="1" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E1" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+    </row>
+    <row r="3" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="1" t="s">
+    </row>
+    <row r="4" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="67">
+        <f>179</f>
+        <v>179</v>
+      </c>
+      <c r="H4" s="67">
+        <v>180</v>
+      </c>
+      <c r="I4" s="5">
+        <f>1-G4/H4</f>
+        <v>5.5555555555555358E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G5" s="67">
+        <f>148</f>
+        <v>148</v>
+      </c>
+      <c r="H5" s="67">
+        <v>149</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" ref="I5:I15" si="0">1-G5/H5</f>
+        <v>6.7114093959731447E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="67">
+        <f>99</f>
+        <v>99</v>
+      </c>
+      <c r="H6" s="67">
+        <v>99</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="67">
+        <f>99</f>
+        <v>99</v>
+      </c>
+      <c r="H7" s="67">
+        <v>99</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="s">
+      <c r="G8" s="67">
+        <f>94</f>
+        <v>94</v>
+      </c>
+      <c r="H8" s="67">
+        <v>95</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0526315789473717E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="67">
+        <f>55</f>
+        <v>55</v>
+      </c>
+      <c r="H9" s="67">
+        <v>54</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.8518518518518601E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="67">
+        <f>92</f>
+        <v>92</v>
+      </c>
+      <c r="H10" s="67">
+        <v>93</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0752688172043001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="67">
+        <f>23</f>
+        <v>23</v>
+      </c>
+      <c r="H11" s="67">
+        <v>23</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="4">
-        <v>368</v>
-      </c>
-      <c r="H12" s="3">
-        <f>121*3</f>
-        <v>363</v>
+    </row>
+    <row r="12" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="67">
+        <f>114</f>
+        <v>114</v>
+      </c>
+      <c r="H12" s="67">
+        <v>111</v>
       </c>
       <c r="I12" s="5">
-        <f>1-G12/H12</f>
-        <v>-1.377410468319562E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="4">
-        <v>251</v>
-      </c>
-      <c r="H13" s="3">
-        <f>82*3</f>
-        <v>246</v>
+        <f t="shared" si="0"/>
+        <v>-2.7027027027026973E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="67">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="H13" s="67">
+        <v>31</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
-        <v>-2.0325203252032464E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="4">
-        <v>251</v>
-      </c>
-      <c r="H14" s="3">
-        <f>82*3</f>
-        <v>246</v>
+        <f t="shared" si="0"/>
+        <v>3.2258064516129004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="67">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="H14" s="67">
+        <v>31</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="0"/>
-        <v>-2.0325203252032464E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="2" t="s">
+        <v>3.2258064516129004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="67">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="H15" s="67">
+        <v>30</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="67">
+        <f>179*2</f>
+        <v>358</v>
+      </c>
+      <c r="H21" s="4">
+        <v>360</v>
+      </c>
+      <c r="I21" s="5">
+        <f>1-G21/H21</f>
+        <v>5.5555555555555358E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="67">
+        <f>148*2</f>
+        <v>296</v>
+      </c>
+      <c r="H22" s="4">
+        <v>295</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" ref="I22:I32" si="1">1-G22/H22</f>
+        <v>-3.3898305084745228E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="67">
+        <f>99*2</f>
+        <v>198</v>
+      </c>
+      <c r="H23" s="4">
+        <v>197</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="1"/>
+        <v>-5.0761421319795996E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E24" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="67">
+        <f>99*2</f>
+        <v>198</v>
+      </c>
+      <c r="H24" s="4">
+        <v>197</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.0761421319795996E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E25" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="67">
+        <f>94*2</f>
+        <v>188</v>
+      </c>
+      <c r="H25" s="4">
+        <v>189</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="1"/>
+        <v>5.2910052910053462E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="67">
+        <f>55*2</f>
+        <v>110</v>
+      </c>
+      <c r="H26" s="4">
+        <v>112</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7857142857142905E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="67">
+        <f>92*2</f>
+        <v>184</v>
+      </c>
+      <c r="H27" s="4">
+        <v>185</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="1"/>
+        <v>5.4054054054053502E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="67">
+        <f>23*2</f>
+        <v>46</v>
+      </c>
+      <c r="H28" s="4">
+        <v>46</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="4">
-        <v>175</v>
-      </c>
-      <c r="H15" s="3">
-        <f>56*3</f>
+      <c r="F29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="67">
+        <f>114*2</f>
+        <v>228</v>
+      </c>
+      <c r="H29" s="4">
+        <v>228</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="67">
+        <f>30*2</f>
+        <v>60</v>
+      </c>
+      <c r="H30" s="4">
+        <v>62</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="1"/>
+        <v>3.2258064516129004E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="67">
+        <f>30*2</f>
+        <v>60</v>
+      </c>
+      <c r="H31" s="4">
+        <v>60</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="67">
+        <f>30*2</f>
+        <v>60</v>
+      </c>
+      <c r="H32" s="4">
+        <v>62</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="1"/>
+        <v>3.2258064516129004E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E34" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="67">
+        <f>179*3</f>
+        <v>537</v>
+      </c>
+      <c r="H37" s="4">
+        <v>537</v>
+      </c>
+      <c r="I37" s="5">
+        <f>1-G37/H37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E38" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="67">
+        <f>148*3</f>
+        <v>444</v>
+      </c>
+      <c r="H38" s="4">
+        <v>447</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" ref="I38:I48" si="2">1-G38/H38</f>
+        <v>6.7114093959731447E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E39" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="67">
+        <f>99*3</f>
+        <v>297</v>
+      </c>
+      <c r="H39" s="4">
+        <v>294</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.0204081632652962E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="67">
+        <f>99*3</f>
+        <v>297</v>
+      </c>
+      <c r="H40" s="4">
+        <v>294</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.0204081632652962E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="67">
+        <f>94*3</f>
+        <v>282</v>
+      </c>
+      <c r="H41" s="4">
+        <v>283</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="2"/>
+        <v>3.5335689045936647E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="67">
+        <f>55*3</f>
+        <v>165</v>
+      </c>
+      <c r="H42" s="4">
         <v>168</v>
       </c>
-      <c r="I15" s="6">
-        <f t="shared" si="0"/>
-        <v>-4.1666666666666741E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="4">
-        <v>159</v>
-      </c>
-      <c r="H16" s="4">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>5.3571428571428603E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="4">
-        <v>73</v>
-      </c>
-      <c r="H17" s="3">
-        <f>25*3</f>
-        <v>75</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666616E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="4">
-        <v>326</v>
-      </c>
-      <c r="H18" s="3">
-        <f>104*3</f>
-        <v>312</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.4871794871794934E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="8" t="s">
+      <c r="I42" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142905E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="67">
+        <f>92*3</f>
+        <v>276</v>
+      </c>
+      <c r="H43" s="4">
+        <v>278</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="2"/>
+        <v>7.194244604316502E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="67">
+        <f>23*3</f>
+        <v>69</v>
+      </c>
+      <c r="H44" s="4">
+        <v>70</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4285714285714235E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E45" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="67">
+        <f>114*3</f>
+        <v>342</v>
+      </c>
+      <c r="H45" s="4">
+        <v>342</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E46" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="67">
+        <f>30*3</f>
+        <v>90</v>
+      </c>
+      <c r="H46" s="4">
+        <v>91</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="2"/>
+        <v>1.098901098901095E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E47" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="67">
+        <f t="shared" ref="G47:G48" si="3">30*3</f>
+        <v>90</v>
+      </c>
+      <c r="H47" s="4">
+        <v>91</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="2"/>
+        <v>1.098901098901095E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E48" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="67">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="H48" s="4">
+        <v>92</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="2"/>
+        <v>2.1739130434782594E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E50" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="I52" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="8" t="s">
+    </row>
+    <row r="53" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E53" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="67">
+        <f>179*4</f>
+        <v>716</v>
+      </c>
+      <c r="H53" s="4">
+        <v>716</v>
+      </c>
+      <c r="I53" s="5">
+        <f>1-G53/H53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E54" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="G54" s="67">
+        <f>148*4</f>
+        <v>592</v>
+      </c>
+      <c r="H54" s="4">
+        <v>589</v>
+      </c>
+      <c r="I54" s="5">
+        <f t="shared" ref="I54:I64" si="4">1-G54/H54</f>
+        <v>-5.0933786078097842E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E55" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="67">
+        <f>99*4</f>
+        <v>396</v>
+      </c>
+      <c r="H55" s="4">
+        <v>386</v>
+      </c>
+      <c r="I55" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.5906735751295429E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E56" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="67">
+        <f>99*4</f>
+        <v>396</v>
+      </c>
+      <c r="H56" s="4">
+        <v>390</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.538461538461533E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="G57" s="67">
+        <f>94*4</f>
+        <v>376</v>
+      </c>
+      <c r="H57" s="4">
+        <v>375</v>
+      </c>
+      <c r="I57" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.666666666666595E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E58" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="67">
+        <f>55*4</f>
+        <v>220</v>
+      </c>
+      <c r="H58" s="4">
+        <v>224</v>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7857142857142905E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E59" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="67">
+        <f>92*4</f>
+        <v>368</v>
+      </c>
+      <c r="H59" s="4">
+        <v>369</v>
+      </c>
+      <c r="I59" s="5">
+        <f t="shared" si="4"/>
+        <v>2.7100271002710175E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E60" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="67">
+        <f>23*4</f>
+        <v>92</v>
+      </c>
+      <c r="H60" s="4">
+        <v>91</v>
+      </c>
+      <c r="I60" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.098901098901095E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E61" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" s="67">
+        <f>114*4</f>
+        <v>456</v>
+      </c>
+      <c r="H61" s="4">
+        <v>453</v>
+      </c>
+      <c r="I61" s="5">
+        <f t="shared" si="4"/>
+        <v>-6.6225165562914245E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E62" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" s="67">
+        <f>30*4</f>
+        <v>120</v>
+      </c>
+      <c r="H62" s="4">
+        <v>121</v>
+      </c>
+      <c r="I62" s="5">
+        <f t="shared" si="4"/>
+        <v>8.2644628099173278E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E63" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="67">
+        <f t="shared" ref="G63:G64" si="5">30*4</f>
+        <v>120</v>
+      </c>
+      <c r="H63" s="4">
+        <v>123</v>
+      </c>
+      <c r="I63" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4390243902439046E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E64" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" s="67">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="H64" s="4">
+        <v>123</v>
+      </c>
+      <c r="I64" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4390243902439046E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E66" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E69" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G69" s="67">
+        <f>179*5</f>
+        <v>895</v>
+      </c>
+      <c r="H69" s="4">
+        <v>735</v>
+      </c>
+      <c r="I69" s="5">
+        <f>1-G69/H69</f>
+        <v>-0.21768707482993199</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="67">
+        <f>148*5</f>
+        <v>740</v>
+      </c>
+      <c r="H70" s="4">
+        <v>583</v>
+      </c>
+      <c r="I70" s="5">
+        <f t="shared" ref="I70:I80" si="6">1-G70/H70</f>
+        <v>-0.26929674099485412</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E71" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G71" s="67">
+        <f>99*5</f>
+        <v>495</v>
+      </c>
+      <c r="H71" s="4">
+        <v>352</v>
+      </c>
+      <c r="I71" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.40625</v>
+      </c>
+    </row>
+    <row r="72" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E72" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" s="67">
+        <f>99*5</f>
+        <v>495</v>
+      </c>
+      <c r="H72" s="4">
+        <v>352</v>
+      </c>
+      <c r="I72" s="2">
+        <f t="shared" si="6"/>
+        <v>-0.40625</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E73" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="67">
+        <f>94*5</f>
+        <v>470</v>
+      </c>
+      <c r="H73" s="4">
+        <v>331</v>
+      </c>
+      <c r="I73" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.41993957703927487</v>
+      </c>
+    </row>
+    <row r="74" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E74" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G74" s="67">
+        <f>55*5</f>
+        <v>275</v>
+      </c>
+      <c r="H74" s="4">
+        <v>156</v>
+      </c>
+      <c r="I74" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.76282051282051277</v>
+      </c>
+    </row>
+    <row r="75" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E75" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G75" s="67">
+        <f>92*5</f>
+        <v>460</v>
+      </c>
+      <c r="H75" s="4">
+        <v>423</v>
+      </c>
+      <c r="I75" s="5">
+        <f t="shared" si="6"/>
+        <v>-8.7470449172576847E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E76" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G76" s="67">
+        <f>23*5</f>
+        <v>115</v>
+      </c>
+      <c r="H76" s="4">
+        <v>97</v>
+      </c>
+      <c r="I76" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.18556701030927836</v>
+      </c>
+    </row>
+    <row r="77" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E77" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77" s="67">
+        <f>114*5</f>
+        <v>570</v>
+      </c>
+      <c r="H77" s="4">
+        <v>428</v>
+      </c>
+      <c r="I77" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.33177570093457942</v>
+      </c>
+    </row>
+    <row r="78" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E78" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" s="67">
+        <f>30*5</f>
+        <v>150</v>
+      </c>
+      <c r="H78" s="4">
+        <v>152</v>
+      </c>
+      <c r="I78" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3157894736842146E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E79" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G79" s="67">
+        <f t="shared" ref="G79:G80" si="7">30*5</f>
+        <v>150</v>
+      </c>
+      <c r="H79" s="4">
+        <v>152</v>
+      </c>
+      <c r="I79" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3157894736842146E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E80" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G80" s="67">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="H80" s="4">
+        <v>154</v>
+      </c>
+      <c r="I80" s="5">
+        <f t="shared" si="6"/>
+        <v>2.5974025974025983E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E82" s="61" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="13" t="s">
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+    </row>
+    <row r="84" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E85" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G85" s="67">
+        <f>538*3</f>
+        <v>1614</v>
+      </c>
+      <c r="H85" s="67">
+        <v>1614</v>
+      </c>
+      <c r="I85" s="5">
+        <f>1-G85/H85</f>
         <v>0</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="10">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H26" s="9">
-        <f>721*3</f>
-        <v>2163</v>
-      </c>
-      <c r="I26" s="11">
-        <f>1-G26/H26</f>
-        <v>0.14932963476652794</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="13" t="s">
+    </row>
+    <row r="86" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E86" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="67">
+        <f>446*3</f>
+        <v>1338</v>
+      </c>
+      <c r="H86" s="67">
+        <v>1336</v>
+      </c>
+      <c r="I86" s="5">
+        <f t="shared" ref="I86:I96" si="8">1-G86/H86</f>
+        <v>-1.4970059880239361E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E87" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G87" s="67">
+        <f>297*3</f>
+        <v>891</v>
+      </c>
+      <c r="H87" s="67">
+        <v>890</v>
+      </c>
+      <c r="I87" s="5">
+        <f t="shared" si="8"/>
+        <v>-1.1235955056179137E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E88" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G88" s="67">
+        <f>297*3</f>
+        <v>891</v>
+      </c>
+      <c r="H88" s="67">
+        <v>890</v>
+      </c>
+      <c r="I88" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.1235955056179137E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E89" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="67">
+        <f>283*3</f>
+        <v>849</v>
+      </c>
+      <c r="H89" s="67">
+        <v>850</v>
+      </c>
+      <c r="I89" s="5">
+        <f t="shared" si="8"/>
+        <v>1.1764705882353343E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E90" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H27" s="9">
-        <f>3*464</f>
-        <v>1392</v>
-      </c>
-      <c r="I27" s="11">
-        <f t="shared" ref="I27:I32" si="1">1-G27/H27</f>
-        <v>9.8419540229885083E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="13" t="s">
+      <c r="F90" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" s="67">
+        <f>167*3</f>
+        <v>501</v>
+      </c>
+      <c r="H90" s="67">
+        <v>501</v>
+      </c>
+      <c r="I90" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E91" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H28" s="9">
-        <f>3*462</f>
-        <v>1386</v>
-      </c>
-      <c r="I28" s="11">
-        <f t="shared" si="1"/>
-        <v>9.4516594516594554E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="13" t="s">
+      <c r="F91" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G91" s="67">
+        <f>278*3</f>
+        <v>834</v>
+      </c>
+      <c r="H91" s="67">
+        <v>836</v>
+      </c>
+      <c r="I91" s="5">
+        <f t="shared" si="8"/>
+        <v>2.3923444976076125E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E92" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G92" s="67">
+        <f>69*3</f>
+        <v>207</v>
+      </c>
+      <c r="H92" s="67">
+        <v>208</v>
+      </c>
+      <c r="I92" s="5">
+        <f t="shared" si="8"/>
+        <v>4.8076923076922906E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E93" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="10">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H29" s="9">
-        <f>3*314</f>
-        <v>942</v>
-      </c>
-      <c r="I29" s="7">
-        <f t="shared" si="1"/>
-        <v>7.1125265392781301E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="10">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H30" s="9">
-        <f>3*330</f>
-        <v>990</v>
-      </c>
-      <c r="I30" s="11">
-        <f t="shared" si="1"/>
-        <v>0.19696969696969702</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="10">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H31" s="9">
-        <f>3*141</f>
-        <v>423</v>
-      </c>
-      <c r="I31" s="11">
-        <f t="shared" si="1"/>
-        <v>0.13711583924349879</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="10">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H32" s="9">
-        <f>3*599</f>
-        <v>1797</v>
-      </c>
-      <c r="I32" s="11">
-        <f t="shared" si="1"/>
-        <v>9.2932665553700611E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="10">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H38" s="9">
-        <v>2109</v>
-      </c>
-      <c r="I38" s="11">
-        <f>1-G38/H38</f>
-        <v>0.12754860123281175</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="14">
-        <v>377</v>
-      </c>
-      <c r="N38" s="14">
-        <v>27</v>
-      </c>
-      <c r="O38" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H39" s="14">
-        <v>1315</v>
-      </c>
-      <c r="I39" s="11">
-        <f t="shared" ref="I39:I44" si="2">1-G39/H39</f>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="14">
-        <v>998</v>
-      </c>
-      <c r="N39" s="14">
-        <v>1</v>
-      </c>
-      <c r="O39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1315</v>
-      </c>
-      <c r="I40" s="11">
-        <f t="shared" si="2"/>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N40" s="14">
-        <v>0</v>
-      </c>
-      <c r="O40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="10">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H41" s="14">
-        <v>924</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="2"/>
-        <v>5.3030303030302983E-2</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N41" s="14">
-        <v>139</v>
-      </c>
-      <c r="O41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E42" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="10">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H42" s="14">
-        <v>998</v>
-      </c>
-      <c r="I42" s="11">
-        <f t="shared" si="2"/>
-        <v>0.20340681362725455</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N42" s="14">
-        <v>1</v>
-      </c>
-      <c r="O42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="10">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H43" s="14">
-        <v>404</v>
-      </c>
-      <c r="I43" s="11">
-        <f t="shared" si="2"/>
-        <v>9.6534653465346509E-2</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M43" s="14">
-        <v>924</v>
-      </c>
-      <c r="N43" s="14">
-        <v>0</v>
-      </c>
-      <c r="O43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="10">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H44" s="9">
-        <v>1675</v>
-      </c>
-      <c r="I44" s="11">
-        <f t="shared" si="2"/>
-        <v>2.68656716417911E-2</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N44" s="14">
-        <v>0</v>
-      </c>
-      <c r="O44" s="14">
-        <v>0</v>
+      <c r="F93" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G93" s="67">
+        <f>342*3</f>
+        <v>1026</v>
+      </c>
+      <c r="H93" s="67">
+        <v>1025</v>
+      </c>
+      <c r="I93" s="5">
+        <f t="shared" si="8"/>
+        <v>-9.7560975609756184E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E94" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G94" s="67">
+        <f>92*3</f>
+        <v>276</v>
+      </c>
+      <c r="H94" s="67">
+        <v>277</v>
+      </c>
+      <c r="I94" s="5">
+        <f t="shared" si="8"/>
+        <v>3.6101083032491488E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="5:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E95" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G95" s="67">
+        <f t="shared" ref="G95:G96" si="9">92*3</f>
+        <v>276</v>
+      </c>
+      <c r="H95" s="67">
+        <v>277</v>
+      </c>
+      <c r="I95" s="5">
+        <f t="shared" si="8"/>
+        <v>3.6101083032491488E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="5:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E96" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G96" s="67">
+        <f t="shared" si="9"/>
+        <v>276</v>
+      </c>
+      <c r="H96" s="67">
+        <v>278</v>
+      </c>
+      <c r="I96" s="5">
+        <f t="shared" si="8"/>
+        <v>7.194244604316502E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E9:I9"/>
+  <mergeCells count="2">
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>